--- a/experimentação/rosenbrock/Testes_max_fun_calls/experimento_rosen_30_dimensoes_pcdeepso.xlsx
+++ b/experimentação/rosenbrock/Testes_max_fun_calls/experimento_rosen_30_dimensoes_pcdeepso.xlsx
@@ -453,392 +453,392 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.39606199885616e-06</v>
+        <v>7.214774568964248e-10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.000014815959037, 0.9999904798688807, 1.0000024075859513, 0.9999891717409861, 1.0000057686317625, 1.0000167772493176, 0.9999772175169657, 1.0000407868328978, 0.9999938584526459, 0.9999670323982945, 0.9999918701249083, 0.9999970217163796, 0.9999975435687165, 1.000007883315234, 1.0000193961697172, 1.0000544934348297, 1.0001071158340795, 1.0000267941898169, 0.9999528420213833, 0.9999802717361268, 0.999992918592995, 1.0000065392400999, 1.0000202753474263, 0.9999862847266926, 0.9999742409262621, 0.9999457841144195, 0.9999306280894991, 0.9998752179793817, 0.9997547809720716, 0.9995001404238626</t>
+          <t>0.9999999677619328, 0.9999997796464136, 0.9999998021985252, 0.9999995972535952, 0.9999995764018583, 0.999999582476425, 0.9999998684330734, 1.0000000691228232, 1.0000002940085098, 1.0000002661894836, 0.9999999555528268, 0.9999999672550104, 1.0000002559853804, 1.000000042136428, 0.999999851890149, 0.999999905975669, 0.9999999283680102, 0.9999998382475307, 0.9999998742730222, 0.9999999003591179, 0.9999993808371835, 0.9999991186808832, 0.9999995230915966, 0.9999999353714186, 1.000000088392622, 1.0000001430498997, 0.9999998923764118, 0.9999986032452727, 0.9999963616204074, 0.9999927456700127</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36840</v>
+        <v>100258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.589422546376408e-05</v>
+        <v>1.463540269215919e-08</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.000026979018511, 0.999984069893018, 1.000011976890895, 0.9999989960672648, 1.0000685444849102, 1.000168030226032, 1.0000719431274256, 1.000007465676542, 0.9999983590481817, 1.0000245545252078, 0.9999883605705299, 0.9999516203191487, 0.999992063194213, 1.0000025128497698, 0.9999869340815808, 0.9999958359459312, 0.9999937518718268, 0.999996274373313, 1.0000088532268396, 1.0000010189591946, 1.0000191540751369, 0.9999828937853887, 1.0000288209562127, 1.0000264054276151, 1.0000746859689318, 1.0001682662043578, 1.0003344296758834, 1.0006458949519992, 1.0012856279537432, 1.0026720338039223</t>
+          <t>0.9999995441991913, 1.00000011462119, 0.9999996570535455, 0.9999990539129685, 1.00000003367548, 0.999999961849436, 1.0000000286934385, 1.0000005063243533, 1.0000005877683265, 1.0000003297931586, 1.0000003735124705, 1.000000413266218, 1.0000045355787484, 1.0000008396118467, 1.0000033468958855, 1.000000130944848, 1.0000004829013187, 1.0000009370008098, 0.9999998114021914, 0.9999996836173893, 0.9999994322161003, 0.9999999746082633, 1.0000005560988432, 0.9999996581016801, 0.9999998945950874, 0.9999999487264224, 1.0000001178748392, 1.0000003255636212, 1.0000007730918596, 0.9999996271245261</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37195</v>
+        <v>100146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.691964703500797e-05</v>
+        <v>4.749776796576004e-08</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.9999152421257146, 1.0000408752951684, 1.0000241492747113, 1.0000418950295646, 0.999865250437059, 0.9998734785088884, 0.9999667245207271, 1.000064419622732, 0.9998205616669232, 0.9999034940750025, 1.0000162854639247, 1.0000484259757692, 1.000013223869157, 0.9999843694431374, 1.0000341782645845, 1.0001070305535762, 1.0000633105689671, 1.000068187648007, 0.9999999803022847, 0.99994772303914, 1.000134947639865, 1.0000518219121712, 0.9999797372242536, 1.0000392828638494, 1.000091042922941, 1.0001825362296282, 1.000463756530624, 1.0009116485031495, 1.0017411965499758, 1.0036635151281514</t>
+          <t>0.9999986578471382, 1.000000068828401, 1.0000006706832454, 1.0000004679997185, 1.0000014971850812, 1.000001178505526, 1.0000006454877568, 1.0000000785441552, 1.00000254896811, 0.9999994411529547, 0.9999982807533009, 1.0000004987786424, 1.0000034255095962, 0.9999991953503642, 1.0000001321961376, 0.9999996006122919, 0.999999211666821, 0.9999995711394033, 0.9999983659291852, 1.0000047616155348, 1.0000002327447468, 1.0000007581623427, 1.0000004410171455, 1.0000035424347449, 1.0000005354325485, 1.0000051973881035, 1.0000046041618644, 1.000015994631029, 1.0000275637119165, 1.0000528209448474</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36635</v>
+        <v>100125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0008786793851594092</v>
+        <v>6.057131818330855e-08</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.0000300215978348, 1.0000536359121603, 1.0000354605456518, 0.9999669326639563, 1.000596612623456, 1.0014291252275764, 1.0007165016330515, 1.0003484697272205, 0.9999911993657242, 0.9997129456760092, 0.9999304931939861, 1.0000134491429558, 1.0000070512687154, 1.0000434124502202, 1.0000982934909983, 1.0002810980954613, 1.0006236381269973, 1.000203260955926, 0.9998966670120472, 0.9999524893226792, 1.000004469653504, 1.0000720676603687, 1.0000077708863424, 1.0000587013525923, 1.000204250242943, 1.0004231191179693, 1.0006178531431686, 1.0013864564122437, 1.0028197605415945, 1.0057213759897852</t>
+          <t>0.9999993901131077, 0.999998092412539, 1.000002311107326, 0.9999997823862481, 1.0000037246575628, 1.0000017191407338, 1.0000003378690145, 1.0000006958461338, 1.000000039430502, 0.9999993443154818, 1.0000051783898083, 1.0000004635360187, 0.9999997048369971, 1.0000001301304182, 1.000000732782109, 1.0000029839332873, 0.9999988268831255, 0.999998091981348, 1.0000019863928875, 0.9999989683427087, 1.000002180641624, 0.9999985789382014, 1.0000015909182098, 1.000004498942101, 1.0000017670459334, 1.0000090695029473, 1.0000178633897423, 1.000035363248231, 1.0000701301430925, 1.0001381115120769</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36098</v>
+        <v>100230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00197596605122752</v>
+        <v>6.139827130127209e-08</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.9999652055981388, 1.000033030352823, 0.9999528438691194, 0.9998708573056603, 1.0002520590295723, 1.0007585038564544, 0.9993827609017419, 1.0002684456807613, 1.0000307982538574, 0.99977562676708, 0.9998778760428038, 0.9999349303977834, 1.000076758290882, 1.0001916312898766, 1.0003737538614297, 1.000104168585445, 0.9998743780750474, 0.9999019707347667, 0.9998567035291166, 1.0000115534945166, 1.0001555064982917, 0.9998173812357448, 0.999402710671405, 0.9990950557681397, 0.9982803119734216, 0.9966396414438113, 0.9929521751506926, 0.9857389436404557, 0.9715635233168065, 0.9436907122147421</t>
+          <t>1.0000001686225388, 1.0000010972891384, 1.000001528939368, 1.0000008358491526, 0.9999986624321958, 1.000000732154486, 0.9999992427214272, 1.0000010508714614, 0.9999981536353955, 1.0000013149541929, 0.9999959406519779, 1.0000004861711682, 0.9999973639941423, 0.9999989702273446, 0.999997963750103, 1.000000271520098, 1.0000009693389857, 0.9999967826477377, 1.0000030784715543, 0.9999977318940372, 0.9999982072388203, 1.0000019901221409, 0.9999988607422662, 0.9999981349502471, 0.9999990993828489, 1.000001378850316, 0.9999964408479981, 0.9999969164541873, 0.9999879128378165, 0.9999770080259002</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36446</v>
+        <v>100274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.008510123173583474</v>
+        <v>6.97472358684109e-08</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.0002337511538406, 1.00134125153395, 1.0018779064474008, 0.9975925103618885, 0.9995890082104119, 1.0013372597176577, 1.00058769194222, 1.000466615414043, 1.0003483002607343, 1.000310141666446, 0.9999165652862607, 1.0001239001911209, 1.0000345090546916, 1.0000789236198786, 0.9996868963189033, 0.999657403773577, 0.9996329987050908, 0.9998417729494954, 0.9999074924499096, 1.000046450538781, 0.9998936284042583, 0.9993484433536717, 0.9992451530985836, 0.9988017044503829, 0.9979211372747325, 0.9962354218761758, 0.9919542344009509, 0.9840872216657861, 0.9683023672876556, 0.937362513828673</t>
+          <t>1.000001190121535, 1.0000021882732693, 1.0000006475625216, 1.0000004119217247, 1.0000023455929954, 1.0000038686350208, 0.9999994313570385, 0.9999991155854181, 1.0000034512820677, 0.9999967892723244, 1.000000726276439, 0.9999971123685664, 1.0000000634487913, 0.9999951282020262, 0.9999963442675653, 0.9999988374354398, 1.0000025948160551, 0.9999997472610931, 0.9999993499814819, 1.000001696441617, 0.999999957832158, 1.0000002061543183, 1.0000025343698562, 0.9999982269184439, 0.9999996771718559, 1.000005391028257, 1.0000059155134178, 1.000010703694166, 1.0000129922111693, 1.0000239784813105</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35937</v>
+        <v>100302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.009978012711971157</v>
+        <v>7.005319230764825e-08</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9986374953546197, 1.000104699848872, 1.000205458017069, 1.0000745069504333, 0.9986031323617868, 0.9963496926548786, 0.9984968730115316, 1.0001521860403904, 1.0003300408545375, 0.9999162710114564, 1.0001669156984547, 1.0002738682121748, 1.0001216550615128, 0.9997814497945308, 0.9997732776931466, 0.9997066843708836, 0.9995140482428286, 1.00012833584839, 1.0010600726600036, 0.9999263795373774, 0.9991559778858838, 0.9996637102965624, 0.9998196996076297, 0.9983394774798434, 0.996847021856346, 0.9938117059037569, 0.9874861505083358, 0.9750062469543718, 0.9506409025801823, 0.9034481281589324</t>
+          <t>0.9999995008627705, 1.0000017430235117, 1.0000025767888299, 1.0000007734839227, 1.0000001322777805, 0.9999997202201167, 0.9999991938478145, 1.0000000864103689, 0.9999998933303995, 0.9999986858823872, 1.0000010156088226, 0.9999989189801107, 0.9999958454111675, 1.0000045078261992, 1.0000036306317663, 0.9999971618287011, 0.9999986285417728, 1.0000011832053304, 1.0000011915843434, 1.000001535205498, 0.9999995377693192, 0.999999516227915, 1.000004395064242, 1.0000048462796127, 0.9999986732493832, 1.000001655918726, 1.0000043953607964, 1.0000014416027894, 0.9999961760137931, 0.9999892831835498</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36945</v>
+        <v>100386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02062271460596348</v>
+        <v>7.404057229495145e-08</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9998602033989864, 1.0004079431341093, 0.9997273367712202, 0.999937080349834, 1.0000956465311743, 1.0000968829183456, 0.9992811312030909, 0.9981533152909797, 1.000001616090522, 1.001988320366888, 1.0002085452904388, 0.998836287966904, 1.0012492727744335, 1.0004689567124638, 1.000121807589457, 0.9999737754553996, 0.9991577516964968, 1.000091874002245, 1.0005698321621213, 0.9998131033068367, 0.9988839515926855, 0.9994543640608088, 0.9984102096404245, 0.9965829524673958, 0.9933365544088887, 0.986755547255574, 0.9744357630377251, 0.9499112068463113, 0.9002115729096022, 0.808637697224182</t>
+          <t>1.0000035424114218, 1.0000008319684672, 1.0000002495307088, 0.9999988884552662, 0.9999980314599066, 1.0000018337532683, 0.9999966582800923, 0.9999994419723245, 0.9999997725316878, 0.9999999122204402, 1.0000027396603988, 0.9999989404312927, 1.000000829498706, 0.999999440582516, 0.9999989592823105, 0.9999971703659827, 1.0000035959035916, 1.0000015005391207, 1.0000038197852574, 1.0000002697130133, 0.9999996104619137, 1.0000001590128846, 1.0000028574135944, 0.9999974310702, 1.0000008271745673, 1.0000042286081756, 1.0000119116812023, 1.0000180765428826, 1.0000424251599476, 1.0000743571509132</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36953</v>
+        <v>100177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02341650767588865</v>
+        <v>8.738443754288778e-08</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9999512871045452, 0.9998954730735934, 1.0000259469237995, 1.0002186374449538, 0.9992468237179878, 0.9979838358056994, 1.0006335658446468, 1.003811423061574, 1.0002451715373177, 0.9967165068589503, 1.0003949658348552, 1.0019671637816139, 0.997306858132437, 0.9994768694984358, 1.0013303742465938, 1.000361933320973, 0.9995536204497388, 0.9998642395307956, 1.00011309833664, 1.000429871870607, 1.0001831892413509, 1.0000440796765546, 1.0002471207467243, 1.000561895120555, 1.001063918403652, 1.002134636790542, 1.0042585388084224, 1.008342336945332, 1.0167037939401662, 1.034105767693976</t>
+          <t>0.9999998186958272, 0.9999989149378983, 1.0000007486967806, 0.9999993839284295, 1.000000977064786, 1.0000007869146632, 1.000004258929488, 1.000001969649312, 0.999999801920153, 1.0000050526732462, 1.0000049378252422, 0.9999994057761306, 1.0000013113959876, 1.0000061506756586, 1.0000061850579134, 1.0000014334389522, 1.0000033360069058, 0.9999990110478164, 0.9999997419466161, 1.0000010306458198, 1.0000012688417173, 0.9999999043998963, 1.0000020039827178, 0.9999971981674356, 1.000004618516713, 0.9999975633420618, 0.9999997504724669, 0.9999938934309085, 0.9999924855151321, 0.999983117389576</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37250</v>
+        <v>100014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02381492770396898</v>
+        <v>8.782346735832849e-08</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.00012524189088, 0.999301368631848, 0.9997587260898266, 0.9997961581614062, 0.9971510003994838, 0.9936354297189699, 0.996563664491695, 0.9988570797238302, 0.9997226952267146, 1.0012236923904196, 1.0000916575456769, 0.9993059578744261, 0.9993380217660184, 0.9996204391674152, 0.99953523398582, 0.9995589258398507, 1.0005112371596696, 0.9996557175320391, 0.9984494735539258, 0.9997060171336898, 1.000641248360683, 0.9974734432781439, 0.9992922372891928, 1.000360704623286, 0.9974150602371483, 0.9931952681851353, 0.9888389814350786, 0.9788362963880101, 0.9578668198733529, 0.917128789238036</t>
+          <t>1.000001537010839, 1.0000000647528746, 0.9999999196576819, 0.999999653042018, 1.0000015899483314, 1.000001826547004, 1.0000012910702116, 1.0000013025350454, 1.0000004053069895, 1.000002636464099, 1.0000056539826243, 1.000003595855771, 1.0000029202772847, 1.0000019012512034, 1.000003630432863, 0.9999992827953237, 1.0000008892159162, 1.0000009725001568, 1.0000054591717795, 0.9999996252573752, 1.0000021870180935, 1.0000045720415203, 1.0000011692549848, 1.0000038382700478, 1.0000005338220816, 1.0000044138439514, 0.9999912740515843, 0.9999861307716115, 0.9999800136540324, 0.9999558594303026</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36674</v>
+        <v>100219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.02472950680716138</v>
+        <v>8.853478399159096e-08</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.9992125513166689, 1.0020140420377635, 0.9962371290279765, 0.9946725927937843, 0.9972901504853652, 1.0000879382385524, 1.0031123043634926, 1.0014032820742276, 1.0004952041734845, 0.9992435475218002, 0.9974036382849572, 0.9994090555659435, 1.000438537025427, 1.0008973635811298, 1.0005433932308643, 1.000436779551534, 1.0003443433292423, 1.0003013086391748, 1.0002869119750328, 1.0000018301401299, 0.999639594910476, 1.0002848373511444, 1.0001866799740187, 0.9997573391036438, 0.999424287199066, 0.9982087156592756, 0.9965931529284224, 0.9937839833123064, 0.9877536727759283, 0.9740603298184705</t>
+          <t>0.999998425276687, 0.9999995031375098, 1.000000876957312, 1.0000007616184645, 0.9999988860354918, 1.0000033623259121, 1.0000039380928998, 0.999998417329505, 1.0000010374782495, 0.9999982262939047, 1.0000014686094842, 0.9999975485730407, 1.0000011143116123, 0.9999971745862156, 1.0000021113770712, 1.000000075301177, 0.9999993124360645, 1.0000019994210019, 0.9999976242165469, 1.0000015926714263, 0.9999981480178812, 1.0000050892084986, 0.9999979481856124, 0.9999984046715709, 1.0000012185788183, 0.9999967359318253, 0.9999950740748839, 0.999987670490256, 0.9999660773519947, 0.9999322761981432</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35442</v>
+        <v>100303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02708257441807137</v>
+        <v>8.872521126908363e-08</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.9997419459120207, 0.9986046309139256, 0.999225823234058, 0.9950921656180556, 0.9992098439105728, 1.0044057664833708, 1.0019806168814631, 1.000675893771663, 0.9997319223792179, 0.9994286889385628, 0.99880483057862, 0.999695736408257, 0.9999334450075812, 1.0001099475553017, 1.000196598243604, 1.0002526297362044, 0.9999959714590891, 0.9997623197456472, 0.999543455805727, 0.999140734872604, 0.9999114302030155, 1.0008669869181446, 0.9990439772582317, 0.9967327527947726, 0.99587101122277, 0.9923792803250132, 0.9847834522222793, 0.9691285301853695, 0.9387326711425318, 0.8797970479266979</t>
+          <t>0.9999974996960607, 1.0000002037982063, 1.000000388801721, 0.999999360771029, 0.9999997470520062, 1.0000004708110959, 0.9999987729225821, 1.0000021366605116, 0.9999986788249491, 1.0000027894388486, 1.0000004065790746, 1.0000050471960713, 1.0000024836927337, 1.0000015240844937, 0.9999975277276656, 0.9999958882880418, 0.9999970600755289, 0.999995334237329, 1.000003691600986, 0.999997313510642, 1.000000533810734, 1.0000054132745477, 1.000005110125871, 0.9999994731293663, 1.0000017321636783, 1.0000019662175113, 1.0000065101643134, 1.0000064286539365, 1.0000182857566704, 1.000031481596665</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36530</v>
+        <v>100339</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02934022444430485</v>
+        <v>9.095693499125672e-08</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.9974126197451236, 1.0027577826746241, 0.9989842533696546, 1.0022958871618501, 1.0005845086210576, 0.9997157398311856, 0.9992358850647695, 0.9992060206479025, 0.9980515808171418, 1.0004472593888316, 1.0026090861085213, 1.0006044422748412, 0.9987151632470146, 0.999835009249669, 1.0008798158503185, 1.0021420710856106, 1.0020874745938553, 0.9976511245431003, 0.9992998726943165, 0.99949407460354, 0.9995600879824565, 0.9996335630311628, 0.9993257137191107, 0.9992932576148119, 0.9984314589017635, 0.995476900508747, 0.9901457382579154, 0.9790145258562286, 0.959599315827253, 0.9208054831427888</t>
+          <t>1.0000020863208874, 0.9999988230486008, 0.9999985051152542, 1.0000010942958115, 1.000000012748535, 1.000003236450146, 1.0000001786711563, 1.000001950618524, 0.9999967918629449, 0.9999979728919484, 1.0000027587666256, 1.0000010209454118, 0.999996861666829, 1.0000010886011752, 0.9999979492434253, 0.9999958887755978, 1.0000033532945936, 0.9999963803394583, 1.0000031207407802, 1.0000035305277644, 0.9999978086872772, 0.9999996121252304, 0.9999983733039304, 1.0000019225404824, 0.9999985267342666, 0.999998777199571, 1.0000011011786756, 0.9999960617006708, 0.9999917873918679, 0.9999852008406361</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36477</v>
+        <v>100094</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.03110648889038204</v>
+        <v>1.034815565588775e-07</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.997205958098909, 0.9995276612165132, 1.0077857734770401, 1.0034051584656045, 1.0007435860615626, 1.000497512642624, 1.000556448092175, 1.0009012651991989, 1.0012624798650318, 1.0000782436967377, 0.9989242576058558, 0.9992686884560137, 0.9992037015633045, 0.9997975299976236, 1.0002850183145797, 1.0001392501824735, 1.0000896949147855, 1.0001345343772339, 1.0001892933148153, 1.0003277270147901, 0.9998518040915123, 0.9996896275327835, 0.9995125128939799, 0.999086497995205, 0.9985236336403267, 0.9971978698476927, 0.9944711034343049, 0.9889422990532389, 0.9779721753536474, 0.9563009650915598</t>
+          <t>0.9999976975515695, 0.9999991270591033, 1.0000013746901115, 0.9999985414556957, 1.0000011278023824, 1.0000003119813363, 0.9999993876119676, 1.0000008037223869, 1.000003158766573, 0.9999991942341167, 1.0000032437099766, 0.9999992952544857, 1.0000050195405072, 1.000005367461758, 1.0000005141693311, 0.9999989820649554, 0.9999981237410416, 1.0000056803036752, 0.9999975153254363, 1.000003293303951, 1.0000028197797346, 1.0000037605526586, 0.9999986861501337, 1.0000029616422625, 1.0000008172013017, 1.0000055974843376, 1.000009703816062, 1.0000275472259939, 1.0000514195598176, 1.0000973084448839</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36280</v>
+        <v>100177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03138729973260623</v>
+        <v>1.084545115322871e-07</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.000111503684781, 0.9998592221979393, 1.0002408641944363, 1.000727986868559, 0.9981074517200881, 0.994646309982857, 1.0038752238470017, 1.0005278274977625, 1.000079623191283, 0.9997288046679873, 1.0010600520020083, 1.0029567073512708, 1.001514520733531, 1.000381223125214, 0.9999934077136344, 0.9998284843545808, 0.999836043906291, 0.9997926607321332, 1.000125515397496, 1.0004256652767913, 1.000973261142319, 1.0004793576482094, 1.000242201528851, 1.000138662093218, 1.000187069168383, 1.0003328922993142, 1.000560224647929, 1.0012254536534868, 1.0026224053226485, 1.0055756374404172</t>
+          <t>0.999995650067419, 0.9999976853491099, 1.0000006248092135, 0.9999993055367106, 1.0000018020988908, 1.000009762668022, 1.0000089508537475, 1.0000047538101964, 1.0000013826672103, 0.9999974169843053, 1.000003076804949, 1.0000024825218699, 1.0000042344840794, 1.0000002093974414, 1.0000020874729927, 0.9999971036755644, 0.9999995728638592, 0.9999984488581881, 0.9999983433715794, 0.9999998710536278, 1.0000028950788593, 0.9999994674632835, 1.0000020449908344, 0.9999977388377387, 1.0000025690964496, 1.0000007811435612, 1.0000063983092788, 1.0000073360700605, 1.0000246893169449, 1.000046623822911</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35947</v>
+        <v>100322</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0365155176337172</v>
+        <v>1.09672814366296e-07</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.0001193233768306, 0.9996269060862335, 0.9999715850045792, 1.0005576597071066, 0.9985608207628597, 0.9967616596816317, 1.003097871702137, 0.9990255598085589, 1.0002827899479545, 1.0009127318172057, 1.0006301423057982, 1.000094720827662, 1.000077865452341, 1.000008314928614, 0.9998026731677613, 0.9991132264822666, 0.999363019445769, 0.9995252103897034, 0.9993712162042019, 0.9991573641239576, 0.998682746231017, 1.0016417474505357, 1.0022737202751915, 1.0039577322374555, 1.0067981072395469, 1.0134129043595606, 1.0268455882055896, 1.0560789150124335, 1.1164476690256846, 1.245224090656223</t>
+          <t>0.9999985977613423, 1.0000028426695085, 1.000001149964621, 0.9999974554347575, 0.999998462245016, 1.0000019420639363, 0.9999984881806986, 1.0000022618933142, 0.999999262848059, 1.0000026713395629, 0.9999995134116886, 0.9999968947277906, 1.000001869369232, 0.9999998724030376, 1.0000030740863712, 0.9999999135336561, 1.0000040337542417, 0.9999969120253341, 1.0000016555271514, 0.9999993200037304, 0.9999975625113084, 0.9999976859022695, 1.0000065263794777, 0.9999993853158936, 1.0000029474527086, 1.0000000834375595, 1.0000058234458842, 1.000006593762278, 1.0000192224324385, 1.0000336644308983</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36415</v>
+        <v>100335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03665742193814671</v>
+        <v>1.141520943508275e-07</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.000229057149368, 0.9998583059868055, 1.0001673052259223, 1.0002575923126806, 0.9986458755577335, 0.995818771868433, 1.0017852104444913, 1.0028243753975974, 0.9972474108442132, 1.0008364630268025, 1.0003281599863556, 1.000401303786968, 0.9994527312063571, 1.0002896618860595, 1.0013450980575995, 1.0005064186842174, 0.999882088837407, 0.999645459597717, 0.9985529872821376, 0.9997143706471096, 1.000657839534777, 0.999373919257639, 0.9979421028770302, 0.9971846843707903, 0.9950401643843563, 0.9880153568285803, 0.9765300839538481, 0.9533985542050142, 0.9085010542788687, 0.8245355822964973</t>
+          <t>1.00000069199891, 1.000002937424359, 0.9999960750397167, 0.9999985978314749, 1.0000020993898315, 0.9999991816592738, 0.9999991533424262, 1.0000003418545678, 0.9999997872499585, 1.0000023267916336, 1.000001406625167, 0.9999976642468511, 1.0000032132056385, 1.0000010328864002, 1.0000034405749456, 0.9999996760603932, 1.0000000758351244, 0.9999982337122141, 1.000005121845461, 0.9999958064913675, 1.0000026865918272, 1.0000030228391528, 0.9999986112126998, 1.0000013909709973, 1.0000059097829297, 1.0000055177182958, 1.0000186313178576, 1.0000332573959474, 1.0000568032060282, 1.0001120924781126</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36076</v>
+        <v>100084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.03751951050679796</v>
+        <v>1.258650394235659e-07</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0006888086946455, 0.9990611318741356, 0.9999339963324922, 0.9997393362122526, 0.9988068135638942, 0.9973348538588289, 1.0003504543940538, 1.0036657308951062, 0.999859469209544, 0.9959152890279985, 1.0006305952254335, 1.0052749532387266, 1.0045009791591675, 1.000701175085331, 0.9971317106552531, 0.9989115997735902, 0.9997324218699408, 1.0000858995004798, 1.0009151081749696, 0.9998722023352934, 0.9995403851830685, 0.9990717682890828, 0.9994613806309682, 0.9995497318414913, 1.0006620237499753, 1.0004509540444437, 1.0009562268074343, 1.0023799592094316, 1.0046368592892714, 1.0092227021082063</t>
+          <t>0.9999981853936538, 0.9999985632823902, 1.0000032166642647, 1.000002906901258, 0.9999977370329031, 0.9999979335036647, 0.9999983305254531, 1.0000026021850767, 1.0000019932748958, 0.999994680567538, 1.0000047225670208, 0.9999990788941998, 1.0000026691284416, 0.9999998937788647, 1.0000009948108937, 0.999999929029823, 1.000004994481081, 1.0000047107283556, 0.9999989270479752, 1.0000046523642212, 1.0000050538774392, 1.0000000845973886, 0.9999948671863927, 1.0000007906755088, 1.0000034686365524, 1.000000019019604, 1.0000002659359348, 1.000006570857063, 1.000008248474957, 1.0000156405771663</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36046</v>
+        <v>100124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.05457993272289344</v>
+        <v>1.277641276856297e-07</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.009669469069762, 0.9974311633172006, 0.9989747351899403, 0.9997690922663088, 0.9998188340022146, 0.9996158440778345, 1.0001625419703022, 1.001033596657193, 0.9994576061682068, 0.99777714670298, 0.9994243075445167, 1.0007385852159256, 1.0006735421808466, 1.0000439354502546, 0.9995011491607572, 1.0001497067048923, 1.0009111431146038, 0.9998187891685655, 0.9997486917345642, 0.9997133717929759, 0.9999230304984521, 0.9999805008360163, 0.9997066842365708, 0.9997200094002513, 0.9997612602699307, 0.9987711990264765, 0.9988920605399215, 0.997093661293229, 0.994070158382276, 0.9884618034771279</t>
+          <t>0.9999983785852261, 0.9999973972041133, 1.0000011599995209, 0.9999987260245585, 0.9999952932492429, 0.999994537669569, 1.0000000928985104, 0.9999977768770094, 1.0000016933397051, 1.0000008415383084, 1.0000037661980694, 0.9999960186574894, 1.0000007921390524, 1.0000027912337928, 1.0000033641007715, 0.9999971470425931, 1.0000002706130675, 1.0000044794843153, 1.000003785761453, 0.9999970897544317, 1.000001722107726, 0.9999993072445988, 1.0000028774447494, 0.9999999857478442, 1.000008223558719, 1.0000127067616886, 1.000015704759883, 1.0000187350780227, 1.0000437347529456, 1.0000861971251858</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>37365</v>
+        <v>100150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05807354573286453</v>
+        <v>1.430457138673301e-07</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.9947092853642343, 0.9937241495754763, 0.9967834328167579, 0.9985596633855057, 0.9993379361071958, 1.0004121747892416, 1.0008443314570656, 0.9991465730156878, 0.9972783037610623, 1.0050024885186495, 0.9985072169545299, 0.9995954259773021, 1.0004071621717574, 0.9998927894873199, 0.999572982932362, 0.99925526564911, 0.9986455251606383, 0.9995499002734335, 1.000536240746278, 1.0003265065216596, 0.9999302823824432, 1.0000169828473797, 0.9986367485373475, 0.9964969027581297, 0.9932041637866641, 0.9865383815810564, 0.97347219814924, 0.9446507975060944, 0.8904998403692108, 0.7936401228313298</t>
+          <t>1.0000001536597887, 0.9999983239991402, 0.9999991922929583, 1.0000004050128277, 1.0000006357013609, 1.0000010650394302, 1.0000023283944555, 0.9999968516924983, 1.0000011753437275, 0.9999981752867317, 1.0000016996342558, 0.999998165744219, 0.999997828741476, 0.9999990615859622, 1.0000012060842278, 0.9999960424826062, 1.000001989278498, 0.9999955416011026, 0.9999979126271048, 1.0000057170563674, 0.9999976559083993, 1.000004402692283, 1.0000054597705101, 1.0000013622468307, 1.0000082500765206, 1.0000113960427213, 1.0000259536301672, 1.0000457326593584, 1.0001031578909572, 1.0001966395530373</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35702</v>
+        <v>100201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1336992753947892</v>
+        <v>1.64071062226722e-07</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.9990706042173537, 1.001620116477182, 0.9966944150216129, 0.9901171406056188, 1.0092695867155281, 1.0010620267287191, 1.0009074955615829, 1.0014317395886432, 0.9995699912753191, 0.9975203428694338, 0.9992850443318946, 1.0006917587643498, 1.0024650928152643, 1.001177766812112, 1.0005805804762606, 1.0000211971183626, 0.9994403410683879, 0.9985633363413828, 0.9982198321160493, 0.9969332417236599, 0.9992205933965679, 1.0010935804496115, 1.0006478549234088, 1.0005326051511843, 1.003017449559178, 1.0050101663590376, 1.009558950538338, 1.0189754807495364, 1.0383008338609234, 1.0788251052631261</t>
+          <t>1.00000063919723, 0.999998127134284, 1.0000002407129027, 0.9999942685771936, 1.0000060259794303, 0.9999990431711161, 1.0000039197741986, 1.0000084334029975, 1.0000060252426677, 0.9999987486128364, 1.0000013859829324, 0.9999968044571999, 1.0000034200890597, 1.0000057827630537, 1.0000031547830754, 1.0000032612475716, 0.9999971012031349, 1.000002560369695, 1.0000013987451568, 0.9999970911281377, 1.0000009628215472, 0.999999042088256, 1.0000010776010892, 0.9999957405918288, 0.9999988368210619, 0.999998321701322, 0.9999890409933432, 0.9999838366218269, 0.9999625306844371, 0.9999315246371693</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36660</v>
+        <v>100249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3164906951531135</v>
+        <v>1.744156651538525e-07</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.9999710773552041, 0.9988822669098485, 1.000094944898712, 1.000337081508017, 0.9969276439681581, 0.9935979454220101, 1.001077619541522, 1.0089428586306137, 0.9997219768004496, 0.9890912300137857, 0.9991839866283133, 1.0107243562200217, 1.0034189162141591, 0.9971454233855933, 0.9882277232582557, 1.0002105228396587, 1.0100541726650114, 1.0021791362116923, 0.9990254771870708, 0.9949179592812031, 0.9979612150595848, 0.9986737806945117, 0.9966135064750333, 0.9944068165494485, 0.9893097189486438, 0.9796269064876448, 0.9602089235823177, 0.9212182514112992, 0.8504072936885566, 0.7201078677035905</t>
+          <t>0.9999960094588646, 0.999994255073545, 1.0000003268959268, 0.9999986460577318, 0.999996073564423, 0.9999961735003018, 1.000002553669995, 1.000002309721771, 1.0000013391604667, 1.0000022552699155, 0.9999963942188903, 0.9999966300985661, 0.9999995505584947, 1.000005570707817, 1.0000064930048214, 1.0000027845419286, 0.9999925669678068, 1.0000004285456083, 1.0000005891122479, 0.999993129202547, 1.0000033553637049, 1.0000009562449714, 1.0000035701552057, 1.0000000724717448, 0.9999973605120195, 0.9999953139372888, 0.999982975071986, 0.9999735500901443, 0.9999428162629016, 0.9998971319222734</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>36341</v>
+        <v>100294</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3496544567216404</v>
+        <v>3.618737589663038e-06</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.9999228693610523, 1.000007117541188, 1.0001805003475186, 1.0006812272387433, 0.998436823303079, 0.9953918526663207, 1.0048330941661539, 0.9994887482713076, 1.0068276942388619, 0.9760541599443173, 0.9880479831410914, 0.9940417836699115, 0.996874499648275, 0.9983888358510171, 0.9997413958934712, 1.000187973050588, 1.0005780012113152, 1.000196627586136, 0.999971855041783, 0.9997895261640168, 0.999638819593012, 0.9994931152426222, 0.998571828641912, 0.998133475177988, 0.9974104206049909, 0.9954720392726176, 0.9913517550417222, 0.9827534142414739, 0.9657629775254258, 0.934155434757026</t>
+          <t>1.0000193940935724, 1.0000214354245753, 1.0000082391369522, 1.0000231255633614, 1.0000045523155832, 0.9999963655890515, 0.9999910514318906, 0.9999854855090455, 0.9999820726933187, 0.9999822784780584, 1.0000167613314632, 0.9999925985898034, 0.9999832522638868, 1.0000080839331638, 1.0000043059298196, 1.0000147470472647, 1.0000376701580227, 0.9999947194510644, 0.999963708808404, 0.9999999910302242, 1.0000284728436468, 1.0000077078915683, 0.9999841004600343, 0.9999734182826622, 0.999952630499472, 0.999910550400483, 0.999814593178316, 0.9996435239899614, 0.999333985810837, 0.9986906198076813</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36170</v>
+        <v>100155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3667968133159261</v>
+        <v>0.0006109389206653536</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.0002454339361393, 1.0000987376992287, 0.9997578575198645, 0.9992959218749006, 1.0036017925808527, 1.0098106565408989, 0.9960999602302401, 0.9868450493591225, 1.0006273498983858, 1.0119393481989003, 1.0002027258740815, 0.988460526015596, 1.0005488267117928, 1.0127803007823406, 1.0048520797677511, 0.9991761731090759, 0.9929764618795762, 0.9976733566098361, 0.9992485419852272, 1.0004673525415078, 0.9995948634795552, 0.9985456743034662, 0.9985107986904913, 0.9973423755907573, 0.9948246995041942, 0.9899092097335747, 0.9802235198659771, 0.9627054909317955, 0.9275724689089708, 0.8611599061087748</t>
+          <t>1.0003824749630226, 0.9992749413415076, 1.0003816323015666, 1.0001568623765469, 1.0000073627938613, 0.9999637369867966, 0.999888672168999, 0.9999258345248552, 0.9999757226477468, 0.9999968124934685, 1.000008363725587, 1.0000316794575541, 1.0000630990804327, 1.0000207568944333, 0.9999810199897526, 0.9999888485892223, 0.9999960683907504, 1.000004068452829, 1.000006196778637, 0.9999959790224228, 1.0000030380412797, 1.0000077779449061, 1.0000034744230182, 1.000020228125774, 1.0000393012146276, 1.0000664077201575, 1.0001192264204006, 1.0002513722393866, 1.000512284233217, 1.001010623811988</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>36135</v>
+        <v>100299</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5363359574275057</v>
+        <v>0.001542828874951472</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.9993182554767276, 0.9981600591032085, 0.9986625077458446, 0.9988819862546783, 0.9834703061368121, 0.9601000746403655, 0.983521282337455, 0.9987556162557697, 1.0005336499768847, 1.0028627837787145, 1.0021265921108005, 1.002197530272174, 1.0003076518682945, 0.9985593121832986, 0.9959835204461943, 0.9986681240716723, 1.0008152090753273, 1.0010051921193812, 1.0015159083144478, 0.9987276300349467, 0.9950074660862487, 0.9977147847300031, 0.9996170182278429, 0.9976013329070258, 0.9950226000351593, 0.9901031317733824, 0.9820601334611635, 0.9655159101268562, 0.9329312925003359, 0.8703548643522542</t>
+          <t>0.9995955606660223, 0.9991907543265355, 1.0011582496953686, 0.9998216530275054, 1.0002351181628781, 1.0001370912969632, 0.9998956808893317, 0.9998834886505548, 0.9998274070524187, 0.9996762130542953, 1.0001841362707429, 1.000133939660489, 1.000144178255614, 1.0000766906975862, 1.0000541547965383, 1.0000506693377127, 1.0000473497681746, 1.0000545193198085, 1.000023403367688, 1.0000122562579765, 0.9999993820746234, 1.000010956186638, 1.0000199605917792, 1.000030997570845, 1.0000498791952617, 1.000086166025431, 1.0002213068485346, 1.0004607769742238, 1.0009355950627012, 1.0018735546178583</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>36432</v>
+        <v>100233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7088690038231658</v>
+        <v>0.2449352062950494</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.0008996130633652, 0.9660817531976716, 0.9920920808564594, 1.0137707884306268, 1.0032011428425012, 0.9941816649546688, 1.0008914164347071, 1.0079779325345488, 1.0017215977449094, 0.996189015900647, 0.9999436234259007, 1.0036229505531276, 0.9991864028876865, 0.9942882039500206, 0.9974832201861675, 0.9994255039494508, 1.001077821383062, 1.0003831501053666, 0.999886514673931, 0.9993939257894057, 0.9986987826537083, 0.9993351416820465, 0.9995640238282051, 0.9998061513182164, 0.9996222460035741, 0.9985923202040631, 0.9972708295167161, 0.994342035472119, 0.9888604015678187, 0.9778010862297202</t>
+          <t>1.02133632607971, 0.997375730850834, 0.996738730852292, 0.9900190149952138, 0.9952361795310739, 0.9980466872826858, 0.9998628916643311, 0.9993994922060352, 0.9986243269146253, 0.9989314310465726, 0.9986874850991949, 0.9977772042366415, 0.9997301499700141, 1.0015357542202787, 1.0005082984826104, 1.000262926820082, 1.0001435888124306, 1.0000892208586087, 1.0000720206269735, 1.0000830741738687, 1.0001115298812302, 1.0001879902036461, 1.0000020899379791, 0.9998099314736797, 0.999479624880695, 0.998888761596977, 0.997729055467104, 0.9949562080826453, 0.9896465203201803, 0.9791880735678805</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36206</v>
+        <v>100124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8625837143332813</v>
+        <v>3.986623866798157</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.0002475836939078, 0.95697854676883, 0.9868469185912916, 1.0089273685194227, 1.0035858733665028, 1.0000567784481886, 0.9986140154396772, 0.9964488544154236, 0.9924975709000401, 0.996334139676861, 0.9983875236674301, 0.9994374978543089, 1.0001669797953145, 1.000336455017833, 1.000624771338057, 1.0011100675574192, 1.0003352759738984, 0.9997625883780757, 1.0000031156653033, 1.0001598903626279, 1.00033439340024, 0.9998847868448753, 0.9998641729348284, 0.9997879097542858, 0.9995818051637368, 0.9991916069163413, 0.9982970625022185, 0.996664207062849, 0.9934857495059489, 0.986706275959467</t>
+          <t>-0.9932858746706136, 0.9966510540095964, 0.9983301130431275, 0.9991670556022536, 0.9995850752453406, 0.9997939550925138, 0.999897042228834, 0.9999487373303426, 0.9999741889400612, 0.9999857451490586, 0.9999910908285943, 0.9999962270886409, 0.9999979829134809, 1.0000006578102354, 0.9999985683253209, 0.9999990204597119, 1.000000021089128, 1.0000000258056432, 1.0000016974693593, 0.9999999411101028, 0.9999995543464009, 0.9999994186907518, 1.00000263427625, 0.9999992702359995, 0.9999990256653218, 0.9999978794438501, 0.9999957243249755, 0.9999927027976719, 0.9999839321349114, 0.9999680644891357</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34936</v>
+        <v>100412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9608679488261956</v>
+        <v>3.986623909137609</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.0120898053163023, 0.977734675262389, 1.0155442892092648, 0.9977580877715772, 0.9926169567660039, 0.9840194082611013, 0.9977216131468768, 1.0101238078196226, 1.0024953020521288, 0.9962554711984333, 0.9881417765935916, 0.9977611809545576, 1.0061749173800214, 0.9981465908001631, 0.9890747466108752, 0.9944239363927647, 0.996974027484494, 0.9985022886058312, 0.9997786853749242, 1.000936990294767, 1.0015258545601917, 1.0029173227504526, 1.000326978422864, 0.9980042719212445, 0.9997543448289704, 1.0008618449916782, 1.001932410160902, 1.0021188868131279, 1.0032512977176904, 1.0071377881263064</t>
+          <t>-0.99328757150056, 0.9966504177456121, 0.9983300238260119, 0.9991678212018424, 0.9995850788709355, 0.9997946549642919, 0.9998999156683883, 0.9999460461357458, 0.9999735160668327, 0.9999858574029991, 0.9999929481885926, 0.9999977549691342, 1.000002559913717, 1.0000007436238345, 1.000003799209155, 1.0000008629294963, 1.0000019534325337, 1.0000043902517997, 1.0000011358016767, 1.000002290592772, 0.9999995766130176, 1.000000193828822, 0.9999966201011223, 1.0000025843651121, 1.0000019388227783, 0.9999943582370193, 0.9999885667236772, 0.9999802427742825, 0.9999630232893062, 0.9999262295210525</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35990</v>
+        <v>100217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.332199048386763</v>
+        <v>3.986623981305978</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.0446142277934174, 1.0102619186570743, 1.021325036595836, 1.0230208045615805, 1.0021391614264157, 0.982061425812373, 1.0125958791243088, 0.9904265139961598, 0.9955289002660278, 0.9984620962843289, 1.0000260373032104, 1.000472998665972, 1.0010491731086655, 1.0005518163864071, 0.999836628115976, 0.9994311393125423, 0.9991073098096357, 0.9981716917563862, 0.9973671684207125, 0.9986165883522493, 0.9995469739988462, 1.0002905482705737, 1.0011678584685622, 1.0007768369436167, 1.0007508339294644, 1.001171119831641, 1.0021218951777124, 1.0033423324986797, 1.0075205416898594, 1.0117684886712628</t>
+          <t>-0.9932812961674155, 0.9966511057986357, 0.9983300064524508, 0.9991671136854514, 0.9995839554930939, 0.999791492918725, 0.9998965113660231, 0.9999508682149154, 0.9999757137175879, 0.9999875245066522, 0.999995639055105, 0.9999969713944966, 1.0000063313168686, 0.9999970719240604, 1.000003226974628, 1.0000031737690833, 0.9999968230617907, 1.0000046291816909, 0.99999776194735, 1.0000015340034472, 1.0000035004842636, 0.9999993133317857, 0.9999997592232588, 0.9999968489072221, 0.9999996003734244, 0.999992501481672, 0.9999828142831759, 0.9999743829061186, 0.999945063730266, 0.9998905865002455</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35863</v>
+        <v>100356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.400603752560163</v>
+        <v>3.986624032874907</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.0056676284737747, 0.9969214915470648, 0.9991454775599306, 0.9956635467284887, 1.001723565122183, 1.0058442664295706, 0.9975275259217202, 0.9746094021354242, 1.0075275551120275, 1.0429846999227037, 1.0429251195309528, 0.9991050103646733, 0.9963370985837584, 0.9973398587906498, 1.004198886971933, 0.9931940101068164, 0.9656898502238854, 0.9877808128154246, 1.0002074864601571, 1.0059727145834, 0.9948762560000849, 0.9879020703718504, 0.9888694510725831, 0.9857290955031497, 0.9722108045486018, 0.9360768367436483, 0.869707314646792, 0.7513873222906903, 0.602593819036027, 0.36093563599483075</t>
+          <t>-0.9932865318410986, 0.9966548505864862, 0.9983327272125263, 0.9991772809577092, 0.9995873108176828, 0.9997966796314441, 0.9999021057455331, 0.9999501027966081, 0.9999715265342487, 0.9999877990868482, 0.999997231097237, 0.9999952667589562, 1.0000026467312781, 1.0000034489362952, 1.0000049366894754, 1.000001017697004, 1.0000021706471889, 0.9999965262557017, 1.0000032045365361, 1.0000035672048144, 1.000004070012873, 1.0000030812132499, 0.9999957308162287, 1.000002781282748, 1.0000033212981334, 0.9999952750039968, 0.9999769265111675, 0.9999659816814749, 0.9999298988508718, 0.9998666559662854</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>33857</v>
+        <v>100108</v>
       </c>
     </row>
   </sheetData>
@@ -889,19 +889,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.39606199885616e-06</v>
+        <v>7.214774568964248e-10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.400603752560163</v>
+        <v>3.986624032874907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2808126943337249</v>
+        <v>0.5397863465319189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5170622611070578</v>
+        <v>1.35267141868535</v>
       </c>
       <c r="E2" t="n">
-        <v>36261.43333333333</v>
+        <v>100223.5666666667</v>
       </c>
     </row>
   </sheetData>
